--- a/data/steel/factories/steel_simplified_factory-ccs-bfcoke.xlsx
+++ b/data/steel/factories/steel_simplified_factory-ccs-bfcoke.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CE6180-AB8E-4D47-946C-5CF20BE261A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1260" windowWidth="26520" windowHeight="16515" activeTab="1"/>
+    <workbookView xWindow="2280" yWindow="1260" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="65">
   <si>
     <t>Inflow</t>
   </si>
@@ -227,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -325,7 +326,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -636,21 +637,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -667,7 +668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -681,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -695,7 +696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -709,7 +710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -723,7 +724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -737,7 +738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -751,7 +752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -765,7 +766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -779,7 +780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -793,7 +794,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -813,30 +814,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B28" sqref="B28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -874,7 +875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -900,7 +901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -926,7 +927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -952,7 +953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -978,7 +979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>60</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>60</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>60</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>36</v>
       </c>
@@ -1526,6 +1527,36 @@
       <c r="I26" s="6" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H28" s="1"/>
+      <c r="I28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1533,21 +1564,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1580,7 +1611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1591,12 +1622,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -1606,16 +1637,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1637,7 +1668,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -1648,7 +1679,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
